--- a/src/test/resources/test_files/SortExcel/test_mixed_data.xlsx
+++ b/src/test/resources/test_files/SortExcel/test_mixed_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>100</t>
   </si>

--- a/src/test/resources/test_files/SortExcel/test_mixed_data.xlsx
+++ b/src/test/resources/test_files/SortExcel/test_mixed_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>100</t>
   </si>
